--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB58A62E-DF95-4C2A-A235-5C46AEBA35F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C208FF-ACAA-4369-8448-DA8D1F9EA0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Progress" sheetId="1" r:id="rId1"/>
     <sheet name="High Level Steps - Day1-2" sheetId="6" r:id="rId2"/>
+    <sheet name="High Level Steps - Day3" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -289,6 +290,36 @@
   </si>
   <si>
     <t>looking into log files</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Start with materialied = table</t>
+  </si>
+  <si>
+    <t>Materialized = materialized view (dynamic table) in case of snowflake</t>
+  </si>
+  <si>
+    <t>check table types config in snowflake. Iceberg table,  transient table</t>
+  </si>
+  <si>
+    <t>dbt clean command and clean targets</t>
+  </si>
+  <si>
+    <t>Adding gold layer models with database.schema.table later replacing it with ref keywords and discussion on REF</t>
+  </si>
+  <si>
+    <t>Source keyword explaination</t>
+  </si>
+  <si>
+    <t>Creating sources.yml , defining the sources and later using them in silver models</t>
+  </si>
+  <si>
+    <t>dbt docs generate and dbt docs server command to check documentation and lineage</t>
+  </si>
+  <si>
+    <t>ephemeral materialization explaination</t>
   </si>
 </sst>
 </file>
@@ -387,6 +418,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -398,9 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,7 +778,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -761,7 +792,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -773,7 +804,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="10"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
@@ -785,7 +816,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="10"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -797,7 +828,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -809,7 +840,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="10"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -821,7 +852,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -833,7 +864,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="10"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -845,7 +876,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -859,7 +890,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="11"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -871,7 +902,7 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="11"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
@@ -883,7 +914,7 @@
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -895,7 +926,7 @@
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="11"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
@@ -907,7 +938,7 @@
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="11"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -919,7 +950,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="11"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
@@ -931,7 +962,7 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -945,7 +976,7 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
@@ -958,7 +989,7 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="10"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
@@ -970,57 +1001,71 @@
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="10"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3">
+        <v>45966</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45966</v>
+      </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="10"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3">
+        <v>45966</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45966</v>
+      </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="10"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>45966</v>
+      </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="10"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3">
+        <v>45966</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45966</v>
+      </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="10"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="10"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1028,7 +1073,7 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="10"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1037,7 +1082,7 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="10"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1045,7 +1090,7 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="10"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1053,7 +1098,7 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="10"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1061,7 +1106,7 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="10"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1069,7 +1114,7 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="10"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
@@ -1077,7 +1122,7 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1087,7 +1132,7 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="10"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="5" t="s">
         <v>46</v>
       </c>
@@ -1095,7 +1140,7 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="10"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="5" t="s">
         <v>47</v>
       </c>
@@ -1103,7 +1148,7 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="10"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="5" t="s">
         <v>48</v>
       </c>
@@ -1111,7 +1156,7 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="10"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="5" t="s">
         <v>49</v>
       </c>
@@ -1119,7 +1164,7 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="10"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="5" t="s">
         <v>50</v>
       </c>
@@ -1127,7 +1172,7 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C40" s="10"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="5" t="s">
         <v>51</v>
       </c>
@@ -1135,7 +1180,7 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C41" s="10"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1143,7 +1188,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="10"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="5" t="s">
         <v>37</v>
       </c>
@@ -1151,7 +1196,7 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="10"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="5" t="s">
         <v>52</v>
       </c>
@@ -1159,7 +1204,7 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C44" s="10"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="5" t="s">
         <v>53</v>
       </c>
@@ -1167,7 +1212,7 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="10"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="5" t="s">
         <v>54</v>
       </c>
@@ -1175,7 +1220,7 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C46" s="10"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="5" t="s">
         <v>55</v>
       </c>
@@ -1183,7 +1228,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C47" s="10"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="5" t="s">
         <v>40</v>
       </c>
@@ -1191,7 +1236,7 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C48" s="10"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="5" t="s">
         <v>39</v>
       </c>
@@ -1199,7 +1244,7 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" s="10"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="5" t="s">
         <v>38</v>
       </c>
@@ -1207,7 +1252,7 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" s="10"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="5" t="s">
         <v>56</v>
       </c>
@@ -1215,7 +1260,7 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C51" s="10"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="5" t="s">
         <v>41</v>
       </c>
@@ -1333,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04FF576-446B-4537-8E4C-1D4A8AAD3CDD}">
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1344,10 +1389,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1355,8 +1400,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14">
+      <c r="A3" s="14"/>
+      <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1364,8 +1409,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1373,8 +1418,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14">
+      <c r="A5" s="14"/>
+      <c r="B5" s="10">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1382,8 +1427,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1391,8 +1436,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14">
+      <c r="A7" s="14"/>
+      <c r="B7" s="10">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1400,8 +1445,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1409,8 +1454,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1418,8 +1463,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1427,8 +1472,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14">
+      <c r="A11" s="14"/>
+      <c r="B11" s="10">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1436,10 +1481,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1447,8 +1492,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1456,8 +1501,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1465,8 +1510,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14">
+      <c r="A15" s="14"/>
+      <c r="B15" s="10">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1474,8 +1519,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1483,8 +1528,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14">
+      <c r="A17" s="14"/>
+      <c r="B17" s="10">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1492,8 +1537,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14">
+      <c r="A18" s="14"/>
+      <c r="B18" s="10">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1501,8 +1546,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14">
+      <c r="A19" s="14"/>
+      <c r="B19" s="10">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1510,8 +1555,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14">
+      <c r="A20" s="14"/>
+      <c r="B20" s="10">
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1519,8 +1564,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14">
+      <c r="A21" s="14"/>
+      <c r="B21" s="10">
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1528,8 +1573,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14">
+      <c r="A22" s="14"/>
+      <c r="B22" s="10">
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1537,8 +1582,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14">
+      <c r="A23" s="14"/>
+      <c r="B23" s="10">
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1546,8 +1591,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14">
+      <c r="A24" s="14"/>
+      <c r="B24" s="10">
         <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1561,4 +1606,118 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67F650-F6F3-4781-AA17-FAAE261F1893}">
+  <dimension ref="A2:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="128.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="10">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="10">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="10">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C208FF-ACAA-4369-8448-DA8D1F9EA0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A629DF0A-A0A5-47A7-863E-21936EDB230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1379,7 +1379,7 @@
   <dimension ref="A2:C24"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="A12" sqref="A12:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1613,7 +1613,7 @@
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A629DF0A-A0A5-47A7-863E-21936EDB230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EF69DF-6B77-47F3-BCCA-86FAC8E6AAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Progress" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,7 +1032,9 @@
       <c r="E23" s="3">
         <v>45966</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <v>45966</v>
+      </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C24" s="11"/>
@@ -1051,8 +1053,12 @@
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3">
+        <v>45966</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45966</v>
+      </c>
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EF69DF-6B77-47F3-BCCA-86FAC8E6AAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A3999D-8EFC-400D-BF9E-7ECFF2D60686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Progress" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
   <dimension ref="C2:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D45" sqref="D45:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1066,8 +1066,12 @@
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="3">
+        <v>45968</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45968</v>
+      </c>
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
@@ -1075,15 +1079,21 @@
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="3">
+        <v>45968</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45968</v>
+      </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C28" s="11"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>45968</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="H28" s="7"/>
     </row>
@@ -1100,7 +1110,9 @@
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>45968</v>
+      </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A3999D-8EFC-400D-BF9E-7ECFF2D60686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F8BA0-2543-4336-B2B2-1F4B0A54C02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Progress" sheetId="1" r:id="rId1"/>
     <sheet name="High Level Steps - Day1-2" sheetId="6" r:id="rId2"/>
     <sheet name="High Level Steps - Day3" sheetId="7" r:id="rId3"/>
+    <sheet name="test" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -142,9 +143,6 @@
     <t>Hookups - Pre and Post</t>
   </si>
   <si>
-    <t>Exposures</t>
-  </si>
-  <si>
     <t>DBT - Deep dive</t>
   </si>
   <si>
@@ -320,6 +318,36 @@
   </si>
   <si>
     <t>ephemeral materialization explaination</t>
+  </si>
+  <si>
+    <t>DBT Test</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Singular</t>
+  </si>
+  <si>
+    <t>custom generic</t>
+  </si>
+  <si>
+    <t>dbt defined tests</t>
+  </si>
+  <si>
+    <t>notnull, unique, accepted values, relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.yml file </t>
+  </si>
+  <si>
+    <t>used same way, but custom generic needs to be defined.</t>
+  </si>
+  <si>
+    <t>inside macro or inside tests&gt;generic folder</t>
+  </si>
+  <si>
+    <t>inside test folder</t>
   </si>
 </sst>
 </file>
@@ -403,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -432,6 +460,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
-  <dimension ref="C2:L73"/>
+  <dimension ref="C2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:G51"/>
+    <sheetView topLeftCell="A24" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -877,7 +908,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
@@ -963,7 +994,7 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>15</v>
@@ -1039,7 +1070,7 @@
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C24" s="11"/>
       <c r="D24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="3">
         <v>45966</v>
@@ -1132,17 +1163,17 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="D33" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="C34" s="11"/>
       <c r="D34" s="5" t="s">
         <v>45</v>
       </c>
@@ -1192,7 +1223,7 @@
     <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40" s="11"/>
       <c r="D40" s="5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1208,7 +1239,7 @@
     <row r="42" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C42" s="11"/>
       <c r="D42" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1240,7 +1271,7 @@
     <row r="46" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C46" s="11"/>
       <c r="D46" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1248,7 +1279,7 @@
     <row r="47" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C47" s="11"/>
       <c r="D47" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1256,7 +1287,7 @@
     <row r="48" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C48" s="11"/>
       <c r="D48" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1264,7 +1295,7 @@
     <row r="49" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C49" s="11"/>
       <c r="D49" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1272,21 +1303,20 @@
     <row r="50" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C50" s="11"/>
       <c r="D50" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C51" s="11"/>
-      <c r="D51" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E52" s="1"/>
+      <c r="D52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="9"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.35">
@@ -1297,10 +1327,7 @@
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D54" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.35">
@@ -1374,17 +1401,13 @@
     <row r="72" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="C34:C51"/>
+    <mergeCell ref="C18:C32"/>
+    <mergeCell ref="C33:C50"/>
     <mergeCell ref="I25:I26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1408,13 +1431,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1423,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1432,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1441,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1450,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1459,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1468,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1477,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1486,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1495,18 +1518,18 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1515,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1524,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1533,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1542,7 +1565,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1551,7 +1574,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1560,7 +1583,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1569,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1578,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1587,7 +1610,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1596,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1605,7 +1628,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1614,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1642,13 +1665,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1657,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1666,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1675,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1684,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1693,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1702,7 +1725,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1711,7 +1734,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1720,7 +1743,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1729,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1738,4 +1761,81 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E6CD43-1930-4ED7-ADC6-EDF68FC69DCD}">
+  <dimension ref="C2:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.6328125" customWidth="1"/>
+    <col min="7" max="7" width="36.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F4:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F8BA0-2543-4336-B2B2-1F4B0A54C02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF048AF1-278B-49D6-BF01-50E62FA7C4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Progress" sheetId="1" r:id="rId1"/>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L72"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,7 +1125,9 @@
       <c r="E28" s="3">
         <v>45968</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3">
+        <v>45971</v>
+      </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
@@ -1133,8 +1135,12 @@
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="3">
+        <v>45968</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45968</v>
+      </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C30" s="11"/>
@@ -1767,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E6CD43-1930-4ED7-ADC6-EDF68FC69DCD}">
   <dimension ref="C2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF048AF1-278B-49D6-BF01-50E62FA7C4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AE7F23-1CD9-45F0-B50D-1240EAC35DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1150,23 +1150,33 @@
       <c r="E30" s="3">
         <v>45968</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <v>45971</v>
+      </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C31" s="11"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="3">
+        <v>45971</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45971</v>
+      </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C32" s="11"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="E32" s="3">
+        <v>45971</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45971</v>
+      </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="11" t="s">
@@ -1175,7 +1185,9 @@
       <c r="D33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>45972</v>
+      </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
@@ -1183,7 +1195,9 @@
       <c r="D34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>45972</v>
+      </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.35">
@@ -1191,7 +1205,9 @@
       <c r="D35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>45972</v>
+      </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.35">
@@ -1199,7 +1215,9 @@
       <c r="D36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3">
+        <v>45972</v>
+      </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.35">
@@ -1207,7 +1225,9 @@
       <c r="D37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <v>45972</v>
+      </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.35">
@@ -1215,7 +1235,9 @@
       <c r="D38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3">
+        <v>45972</v>
+      </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.35">
@@ -1223,7 +1245,9 @@
       <c r="D39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3">
+        <v>45972</v>
+      </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.35">
@@ -1231,7 +1255,9 @@
       <c r="D40" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3">
+        <v>45972</v>
+      </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.35">
@@ -1239,7 +1265,9 @@
       <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3">
+        <v>45972</v>
+      </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.35">

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AE7F23-1CD9-45F0-B50D-1240EAC35DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B3F9E3-B252-4F28-93A9-2F12121322B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>inside test folder</t>
+  </si>
+  <si>
+    <t>prompt AI =&gt; snowflake dbt</t>
+  </si>
+  <si>
+    <t>hooks example</t>
+  </si>
+  <si>
+    <t>regex function</t>
+  </si>
+  <si>
+    <t>11:00AM</t>
   </si>
 </sst>
 </file>
@@ -780,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1141,6 +1153,9 @@
       <c r="F29" s="3">
         <v>45968</v>
       </c>
+      <c r="K29" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C30" s="11"/>
@@ -1153,6 +1168,9 @@
       <c r="F30" s="3">
         <v>45971</v>
       </c>
+      <c r="K30" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C31" s="11"/>
@@ -1165,6 +1183,9 @@
       <c r="F31" s="3">
         <v>45971</v>
       </c>
+      <c r="K31" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C32" s="11"/>
@@ -1174,8 +1195,9 @@
       <c r="E32" s="3">
         <v>45971</v>
       </c>
-      <c r="F32" s="3">
-        <v>45971</v>
+      <c r="F32" s="3"/>
+      <c r="K32" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
@@ -1198,7 +1220,9 @@
       <c r="E34" s="3">
         <v>45972</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3">
+        <v>45972</v>
+      </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C35" s="11"/>
@@ -1208,7 +1232,9 @@
       <c r="E35" s="3">
         <v>45972</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3">
+        <v>45972</v>
+      </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C36" s="11"/>
@@ -1218,7 +1244,9 @@
       <c r="E36" s="3">
         <v>45972</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3">
+        <v>45972</v>
+      </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C37" s="11"/>
@@ -1228,7 +1256,9 @@
       <c r="E37" s="3">
         <v>45972</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3">
+        <v>45972</v>
+      </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C38" s="11"/>
@@ -1238,7 +1268,9 @@
       <c r="E38" s="3">
         <v>45972</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3">
+        <v>45972</v>
+      </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" s="11"/>
@@ -1258,7 +1290,9 @@
       <c r="E40" s="3">
         <v>45972</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3">
+        <v>45972</v>
+      </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C41" s="11"/>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B3F9E3-B252-4F28-93A9-2F12121322B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E08ED-65E4-42E7-8AC8-89A52DA87757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -209,12 +209,6 @@
     <t>Dbt orchestration with airflow</t>
   </si>
   <si>
-    <t>desription in comment</t>
-  </si>
-  <si>
-    <t>Dbt orchestration with aws batch</t>
-  </si>
-  <si>
     <t>Dbt Introduction</t>
   </si>
   <si>
@@ -360,6 +354,9 @@
   </si>
   <si>
     <t>11:00AM</t>
+  </si>
+  <si>
+    <t>AI generated prompts via DBT</t>
   </si>
 </sst>
 </file>
@@ -390,7 +387,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,8 +459,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -476,6 +477,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="83" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="74" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -821,7 +824,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -835,7 +838,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="11"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -847,7 +850,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="11"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
@@ -859,7 +862,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="11"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -871,7 +874,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="11"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -883,7 +886,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="11"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -895,7 +898,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="11"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -907,7 +910,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="11"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -919,7 +922,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -933,7 +936,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="12"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -945,7 +948,7 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="12"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
@@ -957,7 +960,7 @@
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="12"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -969,7 +972,7 @@
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="12"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
@@ -981,7 +984,7 @@
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -993,7 +996,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="12"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1008,7 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1019,7 +1022,7 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1035,7 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="11"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1044,7 +1047,7 @@
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="11"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +1059,7 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="11"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1068,7 +1071,7 @@
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="11"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +1083,7 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="11"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="5" t="s">
         <v>41</v>
       </c>
@@ -1092,7 +1095,7 @@
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="11"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1102,10 +1105,10 @@
       <c r="F25" s="3">
         <v>45966</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="11"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1115,10 +1118,10 @@
       <c r="F26" s="3">
         <v>45968</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="11"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1130,7 +1133,7 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="11"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1146,7 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="11"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1154,11 +1157,11 @@
         <v>45968</v>
       </c>
       <c r="K29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="11"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1169,11 +1172,11 @@
         <v>45971</v>
       </c>
       <c r="K30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="11"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1184,24 +1187,26 @@
         <v>45971</v>
       </c>
       <c r="K31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="11"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="3">
         <v>45971</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <v>45973</v>
+      </c>
       <c r="K32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1210,10 +1215,12 @@
       <c r="E33" s="3">
         <v>45972</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <v>45973</v>
+      </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="11"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="5" t="s">
         <v>45</v>
       </c>
@@ -1225,7 +1232,7 @@
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="11"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="5" t="s">
         <v>46</v>
       </c>
@@ -1237,7 +1244,7 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="11"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="5" t="s">
         <v>47</v>
       </c>
@@ -1249,7 +1256,7 @@
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="11"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="5" t="s">
         <v>48</v>
       </c>
@@ -1261,7 +1268,7 @@
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="11"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="5" t="s">
         <v>49</v>
       </c>
@@ -1273,17 +1280,19 @@
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="11"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E39" s="3">
         <v>45972</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3">
+        <v>45973</v>
+      </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C40" s="11"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="5" t="s">
         <v>35</v>
       </c>
@@ -1295,108 +1304,117 @@
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C41" s="11"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="3">
         <v>45972</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3">
+        <v>45973</v>
+      </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="11"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45973</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C43" s="9"/>
+      <c r="D43" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="11"/>
-      <c r="D43" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C44" s="11"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="11"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C46" s="11"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="5" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C47" s="11"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C48" s="11"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" s="11"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="5" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" s="11"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D51" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D52" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="1"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D53" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="1"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
@@ -1498,214 +1516,214 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="10">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10">
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10">
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10">
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10">
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10">
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="8">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10">
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10">
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="8">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10">
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="8">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="10">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="10">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="10">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
-      <c r="B19" s="10">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="10">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="8">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
-      <c r="B21" s="10">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="8">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="8">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="10">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="10">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1732,95 +1750,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="10">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1850,15 +1868,15 @@
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.35">
@@ -1866,13 +1884,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.35">
@@ -1880,16 +1898,16 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
@@ -1897,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E08ED-65E4-42E7-8AC8-89A52DA87757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A476279-85C8-4B27-BB78-B11969B802B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>DBT cloud - migrating project and scheduling jobs</t>
-  </si>
-  <si>
-    <t>Dbt orchestration with airflow</t>
   </si>
   <si>
     <t>Dbt Introduction</t>
@@ -462,6 +459,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -477,8 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="74" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="74" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,7 +821,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -838,7 +835,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="9"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -850,7 +847,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="9"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
@@ -862,7 +859,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="9"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -874,7 +871,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="9"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -886,7 +883,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="9"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -898,7 +895,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="9"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -910,7 +907,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="9"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -922,7 +919,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -936,7 +933,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="10"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -948,7 +945,7 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="10"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
@@ -960,7 +957,7 @@
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -972,7 +969,7 @@
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="10"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
@@ -984,7 +981,7 @@
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="10"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -996,7 +993,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="10"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1005,7 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1022,7 +1019,7 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="9"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1035,7 +1032,7 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="9"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1047,7 +1044,7 @@
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="9"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1059,7 +1056,7 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="9"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1071,7 +1068,7 @@
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="9"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1083,7 +1080,7 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="9"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="5" t="s">
         <v>41</v>
       </c>
@@ -1095,7 +1092,7 @@
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="9"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1105,10 +1102,10 @@
       <c r="F25" s="3">
         <v>45966</v>
       </c>
-      <c r="I25" s="11"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="9"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1118,10 +1115,10 @@
       <c r="F26" s="3">
         <v>45968</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="9"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1133,7 +1130,7 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="9"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1143,7 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="9"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1157,11 +1154,11 @@
         <v>45968</v>
       </c>
       <c r="K29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="9"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1172,11 +1169,11 @@
         <v>45971</v>
       </c>
       <c r="K30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="9"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1187,11 +1184,11 @@
         <v>45971</v>
       </c>
       <c r="K31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="9"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1202,11 +1199,11 @@
         <v>45973</v>
       </c>
       <c r="K32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1220,7 +1217,7 @@
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="9"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="5" t="s">
         <v>45</v>
       </c>
@@ -1232,7 +1229,7 @@
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="9"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="5" t="s">
         <v>46</v>
       </c>
@@ -1244,7 +1241,7 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="9"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="5" t="s">
         <v>47</v>
       </c>
@@ -1256,7 +1253,7 @@
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="9"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="5" t="s">
         <v>48</v>
       </c>
@@ -1268,7 +1265,7 @@
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="9"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="5" t="s">
         <v>49</v>
       </c>
@@ -1280,7 +1277,7 @@
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="9"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="5" t="s">
         <v>50</v>
       </c>
@@ -1292,7 +1289,7 @@
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C40" s="9"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="5" t="s">
         <v>35</v>
       </c>
@@ -1304,7 +1301,7 @@
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C41" s="9"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1316,9 +1313,9 @@
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="9"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="3">
         <v>45973</v>
@@ -1328,7 +1325,7 @@
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="9"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="5" t="s">
         <v>51</v>
       </c>
@@ -1336,7 +1333,7 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C44" s="9"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="5" t="s">
         <v>52</v>
       </c>
@@ -1344,7 +1341,7 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="9"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="5" t="s">
         <v>53</v>
       </c>
@@ -1352,7 +1349,7 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C46" s="9"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="5" t="s">
         <v>54</v>
       </c>
@@ -1360,7 +1357,7 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C47" s="9"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="5" t="s">
         <v>39</v>
       </c>
@@ -1368,7 +1365,7 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C48" s="9"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="5" t="s">
         <v>38</v>
       </c>
@@ -1376,7 +1373,7 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" s="9"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="5" t="s">
         <v>37</v>
       </c>
@@ -1384,37 +1381,34 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" s="9"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D51" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
@@ -1516,214 +1510,214 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>66</v>
+      <c r="A2" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="8">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="8">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="8">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="8">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="8">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="8">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>67</v>
+      <c r="A12" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="8">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="8">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="8">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="8">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="8">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="8">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="8">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="8">
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="8">
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="8">
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="8">
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="8">
         <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1750,95 +1744,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>81</v>
+      <c r="A2" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="8">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="8">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="8">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="8">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="8">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="8">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1868,15 +1862,15 @@
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.35">
@@ -1884,13 +1878,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
         <v>98</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.35">
@@ -1898,16 +1892,16 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
         <v>95</v>
       </c>
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
@@ -1915,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A476279-85C8-4B27-BB78-B11969B802B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F7DFE9-8039-47E1-8A4A-7577F72052DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -354,6 +354,24 @@
   </si>
   <si>
     <t>AI generated prompts via DBT</t>
+  </si>
+  <si>
+    <t>CICD with GIT CMD</t>
+  </si>
+  <si>
+    <t>DBT Cloud - Orchestration and CICD</t>
+  </si>
+  <si>
+    <t>dbt source fresheness</t>
+  </si>
+  <si>
+    <t>tagging</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -384,7 +402,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,14 +427,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -439,11 +451,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -459,8 +491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -476,6 +506,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="74" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="74" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -821,7 +858,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -835,7 +872,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="11"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -847,7 +884,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="11"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
@@ -859,7 +896,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="11"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -871,7 +908,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="11"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -883,7 +920,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="11"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -895,7 +932,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="11"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -907,7 +944,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="11"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -919,7 +956,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -933,7 +970,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="12"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -945,7 +982,7 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="12"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
@@ -957,7 +994,7 @@
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="12"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -969,7 +1006,7 @@
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="12"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
@@ -981,7 +1018,7 @@
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -993,7 +1030,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="12"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1042,7 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1019,7 +1056,7 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1069,7 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="11"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1044,7 +1081,7 @@
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="11"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +1093,7 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="11"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1068,7 +1105,7 @@
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="11"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +1117,7 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="11"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="5" t="s">
         <v>41</v>
       </c>
@@ -1092,7 +1129,7 @@
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="11"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1102,10 +1139,10 @@
       <c r="F25" s="3">
         <v>45966</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="11"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1115,10 +1152,10 @@
       <c r="F26" s="3">
         <v>45968</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="11"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1130,7 +1167,7 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="11"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1180,7 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="11"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1158,7 +1195,7 @@
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="11"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1173,7 +1210,7 @@
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="11"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1188,7 +1225,7 @@
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="11"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1202,8 +1239,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="11" t="s">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C33" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1216,8 +1253,8 @@
         <v>45973</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="11"/>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C34" s="15"/>
       <c r="D34" s="5" t="s">
         <v>45</v>
       </c>
@@ -1228,8 +1265,8 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="11"/>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C35" s="15"/>
       <c r="D35" s="5" t="s">
         <v>46</v>
       </c>
@@ -1240,8 +1277,8 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="11"/>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C36" s="15"/>
       <c r="D36" s="5" t="s">
         <v>47</v>
       </c>
@@ -1251,9 +1288,12 @@
       <c r="F36" s="3">
         <v>45972</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="11"/>
+      <c r="K36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C37" s="15"/>
       <c r="D37" s="5" t="s">
         <v>48</v>
       </c>
@@ -1263,9 +1303,12 @@
       <c r="F37" s="3">
         <v>45972</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="11"/>
+      <c r="K37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C38" s="15"/>
       <c r="D38" s="5" t="s">
         <v>49</v>
       </c>
@@ -1275,9 +1318,12 @@
       <c r="F38" s="3">
         <v>45972</v>
       </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="11"/>
+      <c r="K38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C39" s="15"/>
       <c r="D39" s="5" t="s">
         <v>50</v>
       </c>
@@ -1287,9 +1333,12 @@
       <c r="F39" s="3">
         <v>45973</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C40" s="11"/>
+      <c r="K39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C40" s="15"/>
       <c r="D40" s="5" t="s">
         <v>35</v>
       </c>
@@ -1300,8 +1349,8 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C41" s="11"/>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C41" s="15"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1312,8 +1361,8 @@
         <v>45973</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="11"/>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C42" s="15"/>
       <c r="D42" s="5" t="s">
         <v>104</v>
       </c>
@@ -1324,105 +1373,138 @@
         <v>45973</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="11"/>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C43" s="15"/>
       <c r="D43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45974</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C44" s="15"/>
+      <c r="D44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45974</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C45" s="15"/>
+      <c r="D45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C44" s="11"/>
-      <c r="D44" s="5" t="s">
+      <c r="E45" s="3">
+        <v>45974</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C46" s="15"/>
+      <c r="D46" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="11"/>
-      <c r="D45" s="5" t="s">
+      <c r="E46" s="3">
+        <v>45974</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C47" s="15"/>
+      <c r="D47" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C46" s="11"/>
-      <c r="D46" s="5" t="s">
+      <c r="E47" s="3">
+        <v>45975</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C48" s="15"/>
+      <c r="D48" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C47" s="11"/>
-      <c r="D47" s="5" t="s">
+      <c r="E48" s="3">
+        <v>45974</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C49" s="15"/>
+      <c r="D49" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C48" s="11"/>
-      <c r="D48" s="5" t="s">
+      <c r="E49" s="3">
+        <v>45975</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C50" s="15"/>
+      <c r="D50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" s="11"/>
-      <c r="D49" s="5" t="s">
+      <c r="E50" s="3">
+        <v>45975</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C51" s="15"/>
+      <c r="D51" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" s="11"/>
-      <c r="D50" s="5" t="s">
+      <c r="E51" s="3">
+        <v>45975</v>
+      </c>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C52" s="15"/>
+      <c r="D52" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="3">
+        <v>45975</v>
+      </c>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="D53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="D54" s="1"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
@@ -1487,8 +1569,8 @@
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="C18:C32"/>
-    <mergeCell ref="C33:C50"/>
     <mergeCell ref="I25:I26"/>
+    <mergeCell ref="C33:C52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1510,7 +1592,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="8">
@@ -1521,7 +1603,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="8">
         <v>2</v>
       </c>
@@ -1530,7 +1612,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
@@ -1539,7 +1621,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="8">
         <v>4</v>
       </c>
@@ -1548,7 +1630,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="8">
         <v>5</v>
       </c>
@@ -1557,7 +1639,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="8">
         <v>6</v>
       </c>
@@ -1566,7 +1648,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="8">
         <v>7</v>
       </c>
@@ -1575,7 +1657,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="8">
         <v>8</v>
       </c>
@@ -1584,7 +1666,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
@@ -1593,7 +1675,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="8">
         <v>10</v>
       </c>
@@ -1602,7 +1684,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="8">
@@ -1613,7 +1695,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="8">
         <v>2</v>
       </c>
@@ -1622,7 +1704,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="8">
         <v>3</v>
       </c>
@@ -1631,7 +1713,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="8">
         <v>4</v>
       </c>
@@ -1640,7 +1722,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="8">
         <v>5</v>
       </c>
@@ -1649,7 +1731,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="8">
         <v>6</v>
       </c>
@@ -1658,7 +1740,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="8">
         <v>7</v>
       </c>
@@ -1667,7 +1749,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="8">
         <v>8</v>
       </c>
@@ -1676,7 +1758,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="8">
         <v>9</v>
       </c>
@@ -1685,7 +1767,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="8">
         <v>10</v>
       </c>
@@ -1694,7 +1776,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="8">
         <v>11</v>
       </c>
@@ -1703,7 +1785,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="8">
         <v>12</v>
       </c>
@@ -1712,7 +1794,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="8">
         <v>13</v>
       </c>
@@ -1744,7 +1826,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="8">
@@ -1755,7 +1837,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="8">
         <v>2</v>
       </c>
@@ -1764,7 +1846,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
@@ -1773,7 +1855,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="8">
         <v>4</v>
       </c>
@@ -1782,7 +1864,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="8">
         <v>5</v>
       </c>
@@ -1791,7 +1873,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="8">
         <v>6</v>
       </c>
@@ -1800,7 +1882,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="8">
         <v>7</v>
       </c>
@@ -1809,7 +1891,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="8">
         <v>8</v>
       </c>
@@ -1818,7 +1900,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
@@ -1827,7 +1909,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="8">
         <v>10</v>
       </c>
@@ -1880,7 +1962,7 @@
       <c r="D4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>97</v>
       </c>
       <c r="G4" t="s">
@@ -1897,7 +1979,7 @@
       <c r="E5" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" t="s">

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F7DFE9-8039-47E1-8A4A-7577F72052DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23A3ECA-3255-4195-A14C-8D7716B38A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Progress" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -372,6 +372,33 @@
   </si>
   <si>
     <t>empty</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ankur-sahu-ab30255a/</t>
+  </si>
+  <si>
+    <t>91-8750750722</t>
+  </si>
+  <si>
+    <t>ankursahu240292@gmail.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Ankur Sahu</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>Anytime, reach out to me at:</t>
   </si>
 </sst>
 </file>
@@ -381,7 +408,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +427,14 @@
       <color rgb="FF262A38"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -428,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -471,11 +506,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -491,6 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -500,21 +599,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -829,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="74" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="74" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,7 +949,8 @@
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.6328125" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -858,7 +969,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -872,7 +983,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="9"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -884,7 +995,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
@@ -896,7 +1007,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -908,7 +1019,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -920,7 +1031,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -932,7 +1043,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -944,7 +1055,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -956,7 +1067,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -970,7 +1081,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="10"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -982,7 +1093,7 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="10"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
@@ -994,7 +1105,7 @@
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +1117,7 @@
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +1129,7 @@
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="10"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1030,7 +1141,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="10"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1042,7 +1153,7 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1056,7 +1167,7 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="9"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1069,7 +1180,7 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="9"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1192,7 @@
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="9"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1093,7 +1204,7 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="9"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1105,7 +1216,7 @@
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="9"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1117,7 +1228,7 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="9"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="5" t="s">
         <v>41</v>
       </c>
@@ -1129,7 +1240,7 @@
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="9"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1139,10 +1250,10 @@
       <c r="F25" s="3">
         <v>45966</v>
       </c>
-      <c r="I25" s="11"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="9"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1152,10 +1263,10 @@
       <c r="F26" s="3">
         <v>45968</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="9"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1167,7 +1278,7 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="9"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1291,7 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="9"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1195,7 +1306,7 @@
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="9"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1210,7 +1321,7 @@
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="9"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1225,7 +1336,7 @@
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="9"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1240,7 +1351,7 @@
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1254,7 +1365,7 @@
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C34" s="15"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="5" t="s">
         <v>45</v>
       </c>
@@ -1266,7 +1377,7 @@
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="5" t="s">
         <v>46</v>
       </c>
@@ -1278,7 +1389,7 @@
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C36" s="15"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="5" t="s">
         <v>47</v>
       </c>
@@ -1293,7 +1404,7 @@
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C37" s="15"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="5" t="s">
         <v>48</v>
       </c>
@@ -1308,7 +1419,7 @@
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C38" s="15"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="5" t="s">
         <v>49</v>
       </c>
@@ -1323,7 +1434,7 @@
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C39" s="15"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="5" t="s">
         <v>50</v>
       </c>
@@ -1338,7 +1449,7 @@
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C40" s="15"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="5" t="s">
         <v>35</v>
       </c>
@@ -1349,8 +1460,8 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C41" s="15"/>
+    <row r="41" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="14"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1361,8 +1472,8 @@
         <v>45973</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C42" s="15"/>
+    <row r="42" spans="3:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="14"/>
       <c r="D42" s="5" t="s">
         <v>104</v>
       </c>
@@ -1372,9 +1483,13 @@
       <c r="F42" s="3">
         <v>45973</v>
       </c>
+      <c r="J42" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K42" s="18"/>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C43" s="15"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="5" t="s">
         <v>105</v>
       </c>
@@ -1384,9 +1499,15 @@
       <c r="F43" s="3">
         <v>45974</v>
       </c>
+      <c r="J43" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C44" s="15"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="5" t="s">
         <v>106</v>
       </c>
@@ -1396,9 +1517,15 @@
       <c r="F44" s="3">
         <v>45974</v>
       </c>
+      <c r="J44" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C45" s="15"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="5" t="s">
         <v>51</v>
       </c>
@@ -1408,9 +1535,15 @@
       <c r="F45" s="3">
         <v>45974</v>
       </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C46" s="15"/>
+      <c r="J45" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="14"/>
       <c r="D46" s="5" t="s">
         <v>52</v>
       </c>
@@ -1418,9 +1551,15 @@
         <v>45974</v>
       </c>
       <c r="F46" s="3"/>
+      <c r="J46" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C47" s="15"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="5" t="s">
         <v>53</v>
       </c>
@@ -1430,7 +1569,7 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C48" s="15"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="5" t="s">
         <v>54</v>
       </c>
@@ -1442,7 +1581,7 @@
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" s="15"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="5" t="s">
         <v>39</v>
       </c>
@@ -1452,7 +1591,7 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" s="15"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="5" t="s">
         <v>38</v>
       </c>
@@ -1462,17 +1601,17 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C51" s="15"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E51" s="3">
         <v>45975</v>
       </c>
-      <c r="F51" s="16"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C52" s="15"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="5" t="s">
         <v>40</v>
       </c>
@@ -1565,7 +1704,8 @@
       <c r="F72" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="C18:C32"/>
@@ -1573,6 +1713,9 @@
     <mergeCell ref="C33:C52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K44" r:id="rId1" xr:uid="{5464A75A-0890-4D3E-AC57-C5C590AEB9E4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1592,7 +1735,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="8">
@@ -1603,7 +1746,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="8">
         <v>2</v>
       </c>
@@ -1612,7 +1755,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
@@ -1621,7 +1764,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="8">
         <v>4</v>
       </c>
@@ -1630,7 +1773,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="8">
         <v>5</v>
       </c>
@@ -1639,7 +1782,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="8">
         <v>6</v>
       </c>
@@ -1648,7 +1791,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="8">
         <v>7</v>
       </c>
@@ -1657,7 +1800,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="8">
         <v>8</v>
       </c>
@@ -1666,7 +1809,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
@@ -1675,7 +1818,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="8">
         <v>10</v>
       </c>
@@ -1684,7 +1827,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="8">
@@ -1695,7 +1838,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="8">
         <v>2</v>
       </c>
@@ -1704,7 +1847,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="8">
         <v>3</v>
       </c>
@@ -1713,7 +1856,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="8">
         <v>4</v>
       </c>
@@ -1722,7 +1865,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="8">
         <v>5</v>
       </c>
@@ -1731,7 +1874,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="8">
         <v>6</v>
       </c>
@@ -1740,7 +1883,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="8">
         <v>7</v>
       </c>
@@ -1749,7 +1892,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="8">
         <v>8</v>
       </c>
@@ -1758,7 +1901,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="8">
         <v>9</v>
       </c>
@@ -1767,7 +1910,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="8">
         <v>10</v>
       </c>
@@ -1776,7 +1919,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="8">
         <v>11</v>
       </c>
@@ -1785,7 +1928,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="8">
         <v>12</v>
       </c>
@@ -1794,7 +1937,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="8">
         <v>13</v>
       </c>
@@ -1826,7 +1969,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="8">
@@ -1837,7 +1980,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="8">
         <v>2</v>
       </c>
@@ -1846,7 +1989,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
@@ -1855,7 +1998,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="8">
         <v>4</v>
       </c>
@@ -1864,7 +2007,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="8">
         <v>5</v>
       </c>
@@ -1873,7 +2016,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="8">
         <v>6</v>
       </c>
@@ -1882,7 +2025,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="8">
         <v>7</v>
       </c>
@@ -1891,7 +2034,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="8">
         <v>8</v>
       </c>
@@ -1900,7 +2043,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
@@ -1909,7 +2052,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="8">
         <v>10</v>
       </c>
@@ -1962,7 +2105,7 @@
       <c r="D4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="16" t="s">
         <v>97</v>
       </c>
       <c r="G4" t="s">
@@ -1979,7 +2122,7 @@
       <c r="E5" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" t="s">

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\nov2025\dbt_training_nov2025_resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23A3ECA-3255-4195-A14C-8D7716B38A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33E671D-D69C-4A4B-9A3D-282DCB465ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -341,18 +341,6 @@
     <t>inside test folder</t>
   </si>
   <si>
-    <t>prompt AI =&gt; snowflake dbt</t>
-  </si>
-  <si>
-    <t>hooks example</t>
-  </si>
-  <si>
-    <t>regex function</t>
-  </si>
-  <si>
-    <t>11:00AM</t>
-  </si>
-  <si>
     <t>AI generated prompts via DBT</t>
   </si>
   <si>
@@ -360,18 +348,6 @@
   </si>
   <si>
     <t>DBT Cloud - Orchestration and CICD</t>
-  </si>
-  <si>
-    <t>dbt source fresheness</t>
-  </si>
-  <si>
-    <t>tagging</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>empty</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/ankur-sahu-ab30255a/</t>
@@ -590,6 +566,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -611,17 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -937,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
-  <dimension ref="C2:L72"/>
+  <dimension ref="C2:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="74" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="76" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -952,9 +928,10 @@
     <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="45.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
@@ -968,8 +945,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -982,8 +959,8 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="10"/>
+    <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="17"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -994,8 +971,8 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="10"/>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C5" s="17"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1005,9 +982,13 @@
       <c r="F5" s="3">
         <v>45964</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="10"/>
+      <c r="L5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C6" s="17"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1017,9 +998,15 @@
       <c r="F6" s="3">
         <v>45964</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C7" s="17"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1029,9 +1016,15 @@
       <c r="F7" s="3">
         <v>45964</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C8" s="17"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1041,9 +1034,15 @@
       <c r="F8" s="3">
         <v>45964</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="17"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1053,9 +1052,15 @@
       <c r="F9" s="3">
         <v>45964</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="10"/>
+      <c r="L9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C10" s="17"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1066,8 +1071,8 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C11" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1080,8 +1085,8 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="11"/>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C12" s="18"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1092,8 +1097,8 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="11"/>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C13" s="18"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1104,8 +1109,8 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="11"/>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C14" s="18"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1116,8 +1121,8 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="11"/>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C15" s="18"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1128,8 +1133,8 @@
         <v>45965</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="11"/>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C16" s="18"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1146,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="11"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1153,7 +1158,7 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1167,7 +1172,7 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="10"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1180,7 +1185,7 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="10"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1192,7 +1197,7 @@
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="10"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1209,7 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="10"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1216,7 +1221,7 @@
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="10"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1228,7 +1233,7 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="10"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="5" t="s">
         <v>41</v>
       </c>
@@ -1240,7 +1245,7 @@
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="10"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1250,10 +1255,10 @@
       <c r="F25" s="3">
         <v>45966</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="10"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1263,10 +1268,10 @@
       <c r="F26" s="3">
         <v>45968</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="10"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1278,7 +1283,7 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="10"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1291,7 +1296,7 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="10"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1301,12 +1306,9 @@
       <c r="F29" s="3">
         <v>45968</v>
       </c>
-      <c r="K29" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="10"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1316,12 +1318,9 @@
       <c r="F30" s="3">
         <v>45971</v>
       </c>
-      <c r="K30" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="10"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1331,12 +1330,9 @@
       <c r="F31" s="3">
         <v>45971</v>
       </c>
-      <c r="K31" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="10"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1346,12 +1342,9 @@
       <c r="F32" s="3">
         <v>45973</v>
       </c>
-      <c r="K32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C33" s="13" t="s">
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1364,8 +1357,8 @@
         <v>45973</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C34" s="14"/>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C34" s="21"/>
       <c r="D34" s="5" t="s">
         <v>45</v>
       </c>
@@ -1376,8 +1369,8 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C35" s="14"/>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C35" s="21"/>
       <c r="D35" s="5" t="s">
         <v>46</v>
       </c>
@@ -1388,8 +1381,8 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C36" s="14"/>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C36" s="21"/>
       <c r="D36" s="5" t="s">
         <v>47</v>
       </c>
@@ -1399,12 +1392,9 @@
       <c r="F36" s="3">
         <v>45972</v>
       </c>
-      <c r="K36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C37" s="14"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C37" s="21"/>
       <c r="D37" s="5" t="s">
         <v>48</v>
       </c>
@@ -1414,12 +1404,9 @@
       <c r="F37" s="3">
         <v>45972</v>
       </c>
-      <c r="K37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C38" s="14"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C38" s="21"/>
       <c r="D38" s="5" t="s">
         <v>49</v>
       </c>
@@ -1429,12 +1416,9 @@
       <c r="F38" s="3">
         <v>45972</v>
       </c>
-      <c r="K38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C39" s="14"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C39" s="21"/>
       <c r="D39" s="5" t="s">
         <v>50</v>
       </c>
@@ -1444,12 +1428,9 @@
       <c r="F39" s="3">
         <v>45973</v>
       </c>
-      <c r="K39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C40" s="14"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C40" s="21"/>
       <c r="D40" s="5" t="s">
         <v>35</v>
       </c>
@@ -1460,8 +1441,8 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="41" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="14"/>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C41" s="21"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1472,10 +1453,10 @@
         <v>45973</v>
       </c>
     </row>
-    <row r="42" spans="3:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="14"/>
+    <row r="42" spans="3:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="21"/>
       <c r="D42" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
         <v>45973</v>
@@ -1483,15 +1464,11 @@
       <c r="F42" s="3">
         <v>45973</v>
       </c>
-      <c r="J42" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K42" s="18"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C43" s="14"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C43" s="21"/>
       <c r="D43" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E43" s="3">
         <v>45974</v>
@@ -1499,17 +1476,11 @@
       <c r="F43" s="3">
         <v>45974</v>
       </c>
-      <c r="J43" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="K43" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C44" s="14"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C44" s="21"/>
       <c r="D44" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E44" s="3">
         <v>45974</v>
@@ -1517,15 +1488,9 @@
       <c r="F44" s="3">
         <v>45974</v>
       </c>
-      <c r="J44" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C45" s="14"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C45" s="21"/>
       <c r="D45" s="5" t="s">
         <v>51</v>
       </c>
@@ -1535,31 +1500,21 @@
       <c r="F45" s="3">
         <v>45974</v>
       </c>
-      <c r="J45" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="K45" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="14"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C46" s="21"/>
       <c r="D46" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E46" s="3">
         <v>45974</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="J46" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C47" s="14"/>
+      <c r="F46" s="3">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C47" s="21"/>
       <c r="D47" s="5" t="s">
         <v>53</v>
       </c>
@@ -1568,8 +1523,8 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C48" s="14"/>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C48" s="21"/>
       <c r="D48" s="5" t="s">
         <v>54</v>
       </c>
@@ -1581,17 +1536,19 @@
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" s="14"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E49" s="3">
         <v>45975</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3">
+        <v>45975</v>
+      </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" s="14"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="5" t="s">
         <v>38</v>
       </c>
@@ -1601,7 +1558,7 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C51" s="14"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="5" t="s">
         <v>37</v>
       </c>
@@ -1611,7 +1568,7 @@
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C52" s="14"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="5" t="s">
         <v>40</v>
       </c>
@@ -1705,7 +1662,7 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="C18:C32"/>
@@ -1714,7 +1671,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K44" r:id="rId1" xr:uid="{5464A75A-0890-4D3E-AC57-C5C590AEB9E4}"/>
+    <hyperlink ref="M7" r:id="rId1" xr:uid="{5464A75A-0890-4D3E-AC57-C5C590AEB9E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1735,7 +1692,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="8">
@@ -1746,7 +1703,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="8">
         <v>2</v>
       </c>
@@ -1755,7 +1712,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
@@ -1764,7 +1721,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="8">
         <v>4</v>
       </c>
@@ -1773,7 +1730,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8">
         <v>5</v>
       </c>
@@ -1782,7 +1739,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8">
         <v>6</v>
       </c>
@@ -1791,7 +1748,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="8">
         <v>7</v>
       </c>
@@ -1800,7 +1757,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8">
         <v>8</v>
       </c>
@@ -1809,7 +1766,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
@@ -1818,7 +1775,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8">
         <v>10</v>
       </c>
@@ -1827,7 +1784,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="8">
@@ -1838,7 +1795,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8">
         <v>2</v>
       </c>
@@ -1847,7 +1804,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="8">
         <v>3</v>
       </c>
@@ -1856,7 +1813,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8">
         <v>4</v>
       </c>
@@ -1865,7 +1822,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="8">
         <v>5</v>
       </c>
@@ -1874,7 +1831,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8">
         <v>6</v>
       </c>
@@ -1883,7 +1840,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="8">
         <v>7</v>
       </c>
@@ -1892,7 +1849,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8">
         <v>8</v>
       </c>
@@ -1901,7 +1858,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="8">
         <v>9</v>
       </c>
@@ -1910,7 +1867,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8">
         <v>10</v>
       </c>
@@ -1919,7 +1876,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="8">
         <v>11</v>
       </c>
@@ -1928,7 +1885,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8">
         <v>12</v>
       </c>
@@ -1937,7 +1894,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="8">
         <v>13</v>
       </c>
@@ -1969,7 +1926,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="8">
@@ -1980,7 +1937,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="8">
         <v>2</v>
       </c>
@@ -1989,7 +1946,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
@@ -1998,7 +1955,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="8">
         <v>4</v>
       </c>
@@ -2007,7 +1964,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8">
         <v>5</v>
       </c>
@@ -2016,7 +1973,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8">
         <v>6</v>
       </c>
@@ -2025,7 +1982,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="8">
         <v>7</v>
       </c>
@@ -2034,7 +1991,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8">
         <v>8</v>
       </c>
@@ -2043,7 +2000,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
@@ -2052,7 +2009,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8">
         <v>10</v>
       </c>
@@ -2105,7 +2062,7 @@
       <c r="D4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="23" t="s">
         <v>97</v>
       </c>
       <c r="G4" t="s">
@@ -2122,7 +2079,7 @@
       <c r="E5" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
